--- a/medicine/Pharmacie/Ordre_national_des_pharmaciens_du_Bénin/Ordre_national_des_pharmaciens_du_Bénin.xlsx
+++ b/medicine/Pharmacie/Ordre_national_des_pharmaciens_du_Bénin/Ordre_national_des_pharmaciens_du_Bénin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ordre_national_des_pharmaciens_du_B%C3%A9nin</t>
+          <t>Ordre_national_des_pharmaciens_du_Bénin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ordre national des pharmaciens du Bénin est un organisme corporatif doté de la personnalité juridique. Il a pour mission de défense et de régulation de la profession de pharmacien au Bénin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ordre_national_des_pharmaciens_du_B%C3%A9nin</t>
+          <t>Ordre_national_des_pharmaciens_du_Bénin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mercredi 14 mars 2018 le gouvernement suspend l’Ordre pour six mois d’activité le temps de faire réformes à la suite de la condamnation à quatre ans de prison des responsables des sociétés de produits pharmaceutiques du Bénin[1].
-Le jeudi 09 juillet 2020 les Conseils Centraux et le Conseil National de l'Ordre National des Pharmaciens du Bénin sont installés par le Ministre de la Santé, Benjamin Hounkpatin mettant ainsi fin conduit  longue période de suspension qui dure depuis 15 mars 2018[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mercredi 14 mars 2018 le gouvernement suspend l’Ordre pour six mois d’activité le temps de faire réformes à la suite de la condamnation à quatre ans de prison des responsables des sociétés de produits pharmaceutiques du Bénin.
+Le jeudi 09 juillet 2020 les Conseils Centraux et le Conseil National de l'Ordre National des Pharmaciens du Bénin sont installés par le Ministre de la Santé, Benjamin Hounkpatin mettant ainsi fin conduit  longue période de suspension qui dure depuis 15 mars 2018.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ordre_national_des_pharmaciens_du_B%C3%A9nin</t>
+          <t>Ordre_national_des_pharmaciens_du_Bénin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Organisation et fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les instances de l'Ordre National des Pharmaciens du Bénin est composée comme suit[3],:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les instances de l'Ordre National des Pharmaciens du Bénin est composée comme suit,:
 Au Conseil National
 Présidente : ALLADAYE PADONOU Sylvie Chantal
 Secrétaire : TOSSOU Emmanuel Yaovi
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ordre_national_des_pharmaciens_du_B%C3%A9nin</t>
+          <t>Ordre_national_des_pharmaciens_du_Bénin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +609,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>l'ordre a plusieurs mission dont:
 Assurer le respect des devoirs professionnels
